--- a/data/trans_camb/P15_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -734,52 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,43</t>
+          <t>-1,02; 2,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,67</t>
+          <t>-0,9; 2,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,32</t>
+          <t>-1,02; 2,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,15</t>
+          <t>-0,48; 1,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,93</t>
+          <t>-0,48; 1,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,79</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 1,17</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 2,44</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 5,78</t>
+          <t>-0,16; 2,56</t>
         </is>
       </c>
     </row>
@@ -807,47 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>115,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>110,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>125,98%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>220,92%</t>
+          <t>124,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>96,83%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>330,71%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1123,45%</t>
+          <t>287,75%</t>
         </is>
       </c>
     </row>
@@ -903,21 +834,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -932,12 +848,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -947,47 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>0,24</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1000,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1015,47 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,25</t>
+          <t>0,24; 2,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 2,32</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,26</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 4,42</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
     </row>
@@ -1083,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1107,21 +993,6 @@
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1179,21 +1050,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1218,52 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1286,52 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,23</t>
+          <t>-1,73; 0,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,38</t>
+          <t>-1,69; 0,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,06</t>
+          <t>-1,98; 0,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,17</t>
+          <t>-0,86; 0,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,09</t>
+          <t>-0,89; 0,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,31</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 0,55</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 0,45</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 3,71</t>
+          <t>-0,87; 0,39</t>
         </is>
       </c>
     </row>
@@ -1359,47 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-60,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-62,93%</t>
+          <t>-35,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,05%</t>
+          <t>-74,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-73,71%</t>
+          <t>-60,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>181,5%</t>
+          <t>-34,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-63,27%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-27,2%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-35,76%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>432,6%</t>
+          <t>-37,96%</t>
         </is>
       </c>
     </row>
@@ -1447,27 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,28; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>40,99; 2394,55</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
           <t>0,15</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,19</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,36</t>
+          <t>0,13; 1,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 1,34</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,74</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 3,85</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1659,21 +1425,6 @@
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1731,21 +1482,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1765,17 +1501,17 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1785,37 +1521,22 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1833,57 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>-2,99; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,0</t>
+          <t>-2,22; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,0</t>
+          <t>-1,61; 1,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,21</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,91</t>
+          <t>-0,75; 0,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 0,59</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 1,08</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 1,74</t>
+          <t>-0,5; 1,13</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1617,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1921,37 +1627,22 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>15,11%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>121,95%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>183,34%</t>
+          <t>128,78%</t>
         </is>
       </c>
     </row>
@@ -2007,21 +1698,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2036,7 +1712,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2051,47 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -2104,7 +1765,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -2119,47 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,18</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,51</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 5,02</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
     </row>
@@ -2192,40 +1838,25 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -2283,21 +1914,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
           <t>0,27</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,66</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,76</t>
+          <t>0,13; 0,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,98</t>
+          <t>0,11; 0,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,12</t>
+          <t>-0,38; 0,41</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,44</t>
+          <t>-0,2; 0,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,6</t>
+          <t>-0,16; 0,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,7</t>
+          <t>-0,12; 0,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,03</t>
+          <t>0,01; 0,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,4</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,55</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,57</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 2,69</t>
+          <t>0,03; 0,63</t>
         </is>
       </c>
     </row>
@@ -2463,47 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>603,04%</t>
+          <t>171,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>163,32%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>174,52%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>1237,44%</t>
+          <t>176,0%</t>
         </is>
       </c>
     </row>
@@ -2531,61 +2102,53 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,29; 355,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-87,65; 470,09</t>
+          <t>-50,12; 593,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,31; 451,48</t>
+          <t>-52,58; 515,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 531,27</t>
+          <t>-59,36; 590,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>171,73; 2075,92</t>
+          <t>-20,04; 817,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 521,74</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 824,85</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-13,2; 782,78</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>449,34; 4773,71</t>
+          <t>-11,74; 1065,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
